--- a/InventoryManagement.Console.API/DB/InventoryDB.xlsx
+++ b/InventoryManagement.Console.API/DB/InventoryDB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="374">
   <si>
     <t>ID</t>
   </si>
@@ -1137,6 +1137,9 @@
   </si>
   <si>
     <t>Application3</t>
+  </si>
+  <si>
+    <t>ContactNo</t>
   </si>
 </sst>
 </file>
@@ -1421,40 +1424,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2154,6 +2123,40 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -2165,13 +2168,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="UserTable" displayName="UserTable" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="UserTable" displayName="UserTable" ref="A1:E3" totalsRowShown="0">
+  <autoFilter ref="A1:E3"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
     <tableColumn id="3" name="Email" dataCellStyle="Hyperlink"/>
     <tableColumn id="4" name="Password"/>
+    <tableColumn id="5" name="ContactNo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2195,44 +2199,44 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G31" totalsRowShown="0" headerRowDxfId="14" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G31" totalsRowShown="0" headerRowDxfId="22" tableBorderDxfId="21">
   <autoFilter ref="A1:G31"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Datacenter" dataDxfId="21"/>
-    <tableColumn id="2" name="Hostname" dataDxfId="20"/>
-    <tableColumn id="3" name="IPAddress" dataDxfId="19"/>
-    <tableColumn id="4" name="Vulnerability" dataDxfId="18"/>
-    <tableColumn id="5" name="Severity" dataDxfId="17"/>
-    <tableColumn id="6" name="Severity1" dataDxfId="16"/>
-    <tableColumn id="7" name="Status" dataDxfId="15"/>
+    <tableColumn id="1" name="Datacenter" dataDxfId="20"/>
+    <tableColumn id="2" name="Hostname" dataDxfId="19"/>
+    <tableColumn id="3" name="IPAddress" dataDxfId="18"/>
+    <tableColumn id="4" name="Vulnerability" dataDxfId="17"/>
+    <tableColumn id="5" name="Severity" dataDxfId="16"/>
+    <tableColumn id="6" name="Severity1" dataDxfId="15"/>
+    <tableColumn id="7" name="Status" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E31" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E31" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A1:E31"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="IPAddress" dataDxfId="12"/>
-    <tableColumn id="2" name="Vulnerability" dataDxfId="11"/>
-    <tableColumn id="3" name="Severity" dataDxfId="10"/>
-    <tableColumn id="4" name="Severity1" dataDxfId="9"/>
-    <tableColumn id="5" name="Status" dataDxfId="8"/>
+    <tableColumn id="1" name="IPAddress" dataDxfId="11"/>
+    <tableColumn id="2" name="Vulnerability" dataDxfId="10"/>
+    <tableColumn id="3" name="Severity" dataDxfId="9"/>
+    <tableColumn id="4" name="Severity1" dataDxfId="8"/>
+    <tableColumn id="5" name="Status" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:E31" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:E31" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A1:E31"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Application" dataDxfId="5"/>
-    <tableColumn id="2" name="Vulnerability" dataDxfId="4"/>
-    <tableColumn id="3" name="Severity" dataDxfId="3"/>
-    <tableColumn id="4" name="Severity1" dataDxfId="2"/>
-    <tableColumn id="5" name="Status" dataDxfId="1"/>
+    <tableColumn id="1" name="Application" dataDxfId="4"/>
+    <tableColumn id="2" name="Vulnerability" dataDxfId="3"/>
+    <tableColumn id="3" name="Severity" dataDxfId="2"/>
+    <tableColumn id="4" name="Severity1" dataDxfId="1"/>
+    <tableColumn id="5" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2525,10 +2529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2538,7 +2542,7 @@
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2551,10 +2555,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2565,10 +2572,13 @@
       <c r="D2">
         <v>123456</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>11112</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2578,6 +2588,9 @@
       </c>
       <c r="D3">
         <v>23456</v>
+      </c>
+      <c r="E3">
+        <v>11111</v>
       </c>
     </row>
   </sheetData>
@@ -10782,7 +10795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>

--- a/InventoryManagement.Console.API/DB/InventoryDB.xlsx
+++ b/InventoryManagement.Console.API/DB/InventoryDB.xlsx
@@ -2532,7 +2532,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2587,7 +2587,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>23456</v>
+        <v>123456</v>
       </c>
       <c r="E3">
         <v>11111</v>

--- a/InventoryManagement.Console.API/DB/InventoryDB.xlsx
+++ b/InventoryManagement.Console.API/DB/InventoryDB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="VAServer" sheetId="4" r:id="rId3"/>
     <sheet name="PTNetworkService" sheetId="5" r:id="rId4"/>
     <sheet name="ApplicationSecurity" sheetId="6" r:id="rId5"/>
+    <sheet name="EndPoint" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="379">
   <si>
     <t>ID</t>
   </si>
@@ -1140,6 +1141,21 @@
   </si>
   <si>
     <t>ContactNo</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Anti Malware</t>
+  </si>
+  <si>
+    <t>Symantec Endpoint Protection, Virus</t>
+  </si>
+  <si>
+    <t>Adobe</t>
   </si>
 </sst>
 </file>
@@ -2183,7 +2199,14 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:H990" totalsRowShown="0">
-  <autoFilter ref="A1:H990"/>
+  <autoFilter ref="A1:H990">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="FortiClient"/>
+        <filter val="Symantec Endpoint Protection"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" name="LoggedInUser"/>
     <tableColumn id="2" name="ComputerName"/>
@@ -2237,6 +2260,18 @@
     <tableColumn id="3" name="Severity" dataDxfId="2"/>
     <tableColumn id="4" name="Severity1" dataDxfId="1"/>
     <tableColumn id="5" name="Status" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4"/>
+  <tableColumns count="3">
+    <tableColumn id="3" name="ID"/>
+    <tableColumn id="1" name="Title"/>
+    <tableColumn id="2" name="Keywords"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2531,8 +2566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2610,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H990"/>
   <sheetViews>
-    <sheetView topLeftCell="A966" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2652,7 +2687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>271</v>
       </c>
@@ -2678,7 +2713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>18</v>
       </c>
@@ -2692,7 +2727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>22</v>
       </c>
@@ -2706,7 +2741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>26</v>
       </c>
@@ -2720,7 +2755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>29</v>
       </c>
@@ -2734,7 +2769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>31</v>
       </c>
@@ -2748,7 +2783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>33</v>
       </c>
@@ -2759,7 +2794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>35</v>
       </c>
@@ -2770,7 +2805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>37</v>
       </c>
@@ -2781,7 +2816,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>39</v>
       </c>
@@ -2792,7 +2827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>41</v>
       </c>
@@ -2803,7 +2838,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>43</v>
       </c>
@@ -2814,7 +2849,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>45</v>
       </c>
@@ -2825,7 +2860,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>47</v>
       </c>
@@ -2836,7 +2871,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>49</v>
       </c>
@@ -2847,7 +2882,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>51</v>
       </c>
@@ -2858,7 +2893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>52</v>
       </c>
@@ -2869,7 +2904,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>54</v>
       </c>
@@ -2880,7 +2915,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>56</v>
       </c>
@@ -2891,7 +2926,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>58</v>
       </c>
@@ -2902,7 +2937,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>60</v>
       </c>
@@ -2913,7 +2948,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>62</v>
       </c>
@@ -2924,7 +2959,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>65</v>
       </c>
@@ -2935,7 +2970,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>67</v>
       </c>
@@ -2946,7 +2981,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>69</v>
       </c>
@@ -2957,7 +2992,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>71</v>
       </c>
@@ -2968,7 +3003,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>74</v>
       </c>
@@ -2979,7 +3014,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>77</v>
       </c>
@@ -2990,7 +3025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>80</v>
       </c>
@@ -3001,7 +3036,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>83</v>
       </c>
@@ -3012,7 +3047,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>86</v>
       </c>
@@ -3023,7 +3058,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>89</v>
       </c>
@@ -3034,7 +3069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>90</v>
       </c>
@@ -3045,7 +3080,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>93</v>
       </c>
@@ -3056,7 +3091,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>96</v>
       </c>
@@ -3067,7 +3102,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>98</v>
       </c>
@@ -3078,7 +3113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>101</v>
       </c>
@@ -3089,7 +3124,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>104</v>
       </c>
@@ -3100,7 +3135,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>107</v>
       </c>
@@ -3111,7 +3146,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>109</v>
       </c>
@@ -3122,7 +3157,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>112</v>
       </c>
@@ -3133,7 +3168,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>115</v>
       </c>
@@ -3144,7 +3179,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>118</v>
       </c>
@@ -3155,7 +3190,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>120</v>
       </c>
@@ -3166,7 +3201,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>123</v>
       </c>
@@ -3177,7 +3212,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>77</v>
       </c>
@@ -3188,7 +3223,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>126</v>
       </c>
@@ -3199,7 +3234,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>129</v>
       </c>
@@ -3210,7 +3245,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>132</v>
       </c>
@@ -3221,7 +3256,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>135</v>
       </c>
@@ -3232,7 +3267,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>138</v>
       </c>
@@ -3243,7 +3278,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>141</v>
       </c>
@@ -3254,7 +3289,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>144</v>
       </c>
@@ -3276,7 +3311,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>150</v>
       </c>
@@ -3287,7 +3322,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>153</v>
       </c>
@@ -3298,7 +3333,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>155</v>
       </c>
@@ -3309,7 +3344,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>77</v>
       </c>
@@ -3320,7 +3355,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>159</v>
       </c>
@@ -3331,7 +3366,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>162</v>
       </c>
@@ -3353,7 +3388,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>168</v>
       </c>
@@ -3364,12 +3399,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>172</v>
       </c>
@@ -3380,7 +3415,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>175</v>
       </c>
@@ -3391,7 +3426,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>178</v>
       </c>
@@ -3402,7 +3437,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>181</v>
       </c>
@@ -3413,7 +3448,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>184</v>
       </c>
@@ -3424,7 +3459,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>187</v>
       </c>
@@ -3435,7 +3470,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>98</v>
       </c>
@@ -3446,7 +3481,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>190</v>
       </c>
@@ -3457,7 +3492,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>192</v>
       </c>
@@ -3468,7 +3503,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>194</v>
       </c>
@@ -3479,7 +3514,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>197</v>
       </c>
@@ -3490,7 +3525,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>200</v>
       </c>
@@ -3501,872 +3536,872 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G82" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G86" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G98" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G99" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G100" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G103" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G104" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G105" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G106" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G107" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G108" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G109" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G110" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G111" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G112" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G113" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G114" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G115" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G116" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G117" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G118" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G119" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G120" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G121" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G122" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G123" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G124" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G125" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G126" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="127" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G127" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G128" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G129" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G130" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G131" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G132" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G133" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G134" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G135" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G136" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G137" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G138" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="139" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G139" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="140" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G140" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G141" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G142" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G143" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="144" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G144" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="145" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G145" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G146" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="147" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G147" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G148" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G149" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="150" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G150" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G151" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="152" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G152" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="153" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G153" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="154" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G154" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="155" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G155" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="156" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G156" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G157" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="158" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G158" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="159" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G159" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="160" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G160" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="161" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G161" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="162" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G162" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="163" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G163" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G164" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="165" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G165" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="166" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G166" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="167" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G167" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G168" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="169" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G169" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="170" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G170" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="171" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G171" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="172" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G172" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="173" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G173" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="174" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G174" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="175" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G175" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G176" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="177" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G177" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="178" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G178" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="179" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G179" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="180" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G180" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G181" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="182" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G182" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="183" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G183" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="184" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G184" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="185" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G185" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="186" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G186" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="187" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G187" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G188" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="189" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G189" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G190" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="191" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G191" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G192" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="193" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G193" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G194" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="195" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G195" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G196" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="197" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G197" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="198" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G198" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="199" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G199" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="200" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G200" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="201" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G201" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="202" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G202" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="203" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G203" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="204" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G204" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G205" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="206" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G206" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="207" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G207" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G208" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G209" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="210" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G210" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="211" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G211" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="212" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G212" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="213" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G213" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="214" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G214" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G215" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="216" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G216" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="217" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G217" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="218" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G218" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="219" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G219" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="220" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G220" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="221" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G221" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="222" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G222" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="223" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G223" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="224" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G224" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="225" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G225" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="226" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G226" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="227" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G227" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="228" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G228" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="229" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G229" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="230" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G230" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="231" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G231" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="232" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G232" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="233" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G233" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G234" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="235" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G235" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="236" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G236" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="237" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G237" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="238" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G238" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="239" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G239" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="240" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G240" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G241" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G242" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G243" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G244" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G245" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G246" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G247" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G248" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G249" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>274</v>
       </c>
@@ -4392,7 +4427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E251" t="s">
         <v>18</v>
       </c>
@@ -4406,7 +4441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E252" t="s">
         <v>22</v>
       </c>
@@ -4420,7 +4455,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E253" t="s">
         <v>26</v>
       </c>
@@ -4434,7 +4469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E254" t="s">
         <v>29</v>
       </c>
@@ -4448,7 +4483,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E255" t="s">
         <v>31</v>
       </c>
@@ -4462,7 +4497,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E256" t="s">
         <v>33</v>
       </c>
@@ -4473,7 +4508,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="257" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E257" t="s">
         <v>35</v>
       </c>
@@ -4484,7 +4519,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="258" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E258" t="s">
         <v>37</v>
       </c>
@@ -4495,7 +4530,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="259" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E259" t="s">
         <v>39</v>
       </c>
@@ -4506,7 +4541,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="260" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E260" t="s">
         <v>41</v>
       </c>
@@ -4517,7 +4552,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="261" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E261" t="s">
         <v>43</v>
       </c>
@@ -4528,7 +4563,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="262" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E262" t="s">
         <v>45</v>
       </c>
@@ -4539,7 +4574,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="263" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E263" t="s">
         <v>47</v>
       </c>
@@ -4550,7 +4585,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="264" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E264" t="s">
         <v>49</v>
       </c>
@@ -4561,7 +4596,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="265" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E265" t="s">
         <v>51</v>
       </c>
@@ -4572,7 +4607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E266" t="s">
         <v>52</v>
       </c>
@@ -4583,7 +4618,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="267" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E267" t="s">
         <v>54</v>
       </c>
@@ -4594,7 +4629,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="268" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E268" t="s">
         <v>56</v>
       </c>
@@ -4605,7 +4640,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="269" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E269" t="s">
         <v>58</v>
       </c>
@@ -4616,7 +4651,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="270" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E270" t="s">
         <v>60</v>
       </c>
@@ -4627,7 +4662,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="271" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E271" t="s">
         <v>62</v>
       </c>
@@ -4638,7 +4673,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="272" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E272" t="s">
         <v>65</v>
       </c>
@@ -4649,7 +4684,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="273" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E273" t="s">
         <v>67</v>
       </c>
@@ -4660,7 +4695,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="274" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E274" t="s">
         <v>69</v>
       </c>
@@ -4671,7 +4706,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="275" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E275" t="s">
         <v>71</v>
       </c>
@@ -4682,7 +4717,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="276" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E276" t="s">
         <v>74</v>
       </c>
@@ -4693,7 +4728,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="277" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E277" t="s">
         <v>77</v>
       </c>
@@ -4704,7 +4739,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="278" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E278" t="s">
         <v>80</v>
       </c>
@@ -4715,7 +4750,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="279" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E279" t="s">
         <v>83</v>
       </c>
@@ -4726,7 +4761,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="280" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E280" t="s">
         <v>86</v>
       </c>
@@ -4737,7 +4772,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="281" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E281" t="s">
         <v>89</v>
       </c>
@@ -4748,7 +4783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E282" t="s">
         <v>90</v>
       </c>
@@ -4759,7 +4794,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="283" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E283" t="s">
         <v>93</v>
       </c>
@@ -4770,7 +4805,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="284" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E284" t="s">
         <v>96</v>
       </c>
@@ -4781,7 +4816,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="285" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E285" t="s">
         <v>98</v>
       </c>
@@ -4792,7 +4827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="286" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E286" t="s">
         <v>101</v>
       </c>
@@ -4803,7 +4838,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="287" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E287" t="s">
         <v>104</v>
       </c>
@@ -4814,7 +4849,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="288" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E288" t="s">
         <v>107</v>
       </c>
@@ -4825,7 +4860,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="289" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E289" t="s">
         <v>109</v>
       </c>
@@ -4836,7 +4871,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="290" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
         <v>112</v>
       </c>
@@ -4847,7 +4882,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="291" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E291" t="s">
         <v>115</v>
       </c>
@@ -4858,7 +4893,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="292" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E292" t="s">
         <v>118</v>
       </c>
@@ -4869,7 +4904,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="293" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
         <v>120</v>
       </c>
@@ -4880,7 +4915,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="294" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E294" t="s">
         <v>123</v>
       </c>
@@ -4891,7 +4926,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="295" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E295" t="s">
         <v>77</v>
       </c>
@@ -4902,7 +4937,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="296" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E296" t="s">
         <v>126</v>
       </c>
@@ -4913,7 +4948,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="297" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E297" t="s">
         <v>129</v>
       </c>
@@ -4924,7 +4959,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="298" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E298" t="s">
         <v>132</v>
       </c>
@@ -4935,7 +4970,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="299" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E299" t="s">
         <v>135</v>
       </c>
@@ -4946,7 +4981,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="300" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E300" t="s">
         <v>138</v>
       </c>
@@ -4957,7 +4992,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="301" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E301" t="s">
         <v>141</v>
       </c>
@@ -4968,7 +5003,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="302" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E302" t="s">
         <v>144</v>
       </c>
@@ -4990,7 +5025,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="304" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E304" t="s">
         <v>150</v>
       </c>
@@ -5001,7 +5036,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="305" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E305" t="s">
         <v>153</v>
       </c>
@@ -5012,7 +5047,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="306" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E306" t="s">
         <v>155</v>
       </c>
@@ -5023,7 +5058,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="307" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E307" t="s">
         <v>77</v>
       </c>
@@ -5034,7 +5069,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="308" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E308" t="s">
         <v>159</v>
       </c>
@@ -5045,7 +5080,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="309" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E309" t="s">
         <v>162</v>
       </c>
@@ -5067,7 +5102,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="311" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E311" t="s">
         <v>168</v>
       </c>
@@ -5078,7 +5113,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="312" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E312" t="s">
         <v>172</v>
       </c>
@@ -5089,7 +5124,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="313" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E313" t="s">
         <v>175</v>
       </c>
@@ -5100,7 +5135,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="314" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E314" t="s">
         <v>178</v>
       </c>
@@ -5111,7 +5146,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="315" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E315" t="s">
         <v>181</v>
       </c>
@@ -5122,7 +5157,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="316" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E316" t="s">
         <v>184</v>
       </c>
@@ -5133,7 +5168,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="317" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E317" t="s">
         <v>187</v>
       </c>
@@ -5144,7 +5179,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="318" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E318" t="s">
         <v>98</v>
       </c>
@@ -5155,7 +5190,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="319" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E319" t="s">
         <v>190</v>
       </c>
@@ -5166,7 +5201,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="320" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E320" t="s">
         <v>192</v>
       </c>
@@ -5177,7 +5212,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="321" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E321" t="s">
         <v>194</v>
       </c>
@@ -5188,7 +5223,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="322" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E322" t="s">
         <v>197</v>
       </c>
@@ -5199,7 +5234,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="323" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E323" t="s">
         <v>200</v>
       </c>
@@ -5210,872 +5245,872 @@
         <v>24</v>
       </c>
     </row>
-    <row r="324" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G324" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="325" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G325" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="326" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G326" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="327" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G327" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="328" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G328" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="329" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G329" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="330" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G330" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="331" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G331" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="332" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G332" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="333" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G333" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="334" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G334" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="335" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G335" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="336" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G336" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="337" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G337" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="338" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G338" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="339" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G339" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="340" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G340" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="341" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G341" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="342" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G342" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="343" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G343" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="344" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G344" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="345" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G345" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="346" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G346" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="347" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G347" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="348" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G348" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="349" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G349" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="350" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G350" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="351" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G351" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="352" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G352" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="353" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G353" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="354" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G354" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="355" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G355" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="356" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G356" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="357" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G357" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="358" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G358" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="359" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G359" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="360" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G360" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="361" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G361" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="362" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G362" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="363" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G363" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="364" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G364" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="365" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G365" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="366" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G366" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="367" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G367" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="368" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G368" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="369" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G369" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="370" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G370" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="371" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G371" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="372" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G372" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="373" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G373" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="374" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G374" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="375" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G375" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="376" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G376" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="377" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G377" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="378" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G378" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="379" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G379" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G380" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="381" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G381" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G382" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="383" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G383" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="384" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G384" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="385" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G385" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="386" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G386" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="387" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G387" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="388" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G388" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="389" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G389" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="390" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G390" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="391" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G391" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="392" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G392" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="393" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G393" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="394" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G394" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G395" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="396" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G396" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="397" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G397" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="398" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G398" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="399" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G399" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="400" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G400" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="401" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G401" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="402" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G402" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="403" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G403" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="404" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G404" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="405" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G405" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="406" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G406" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="407" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G407" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="408" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G408" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="409" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G409" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="410" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G410" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="411" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G411" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="412" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G412" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="413" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G413" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="414" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G414" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="415" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G415" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="416" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G416" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="417" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G417" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="418" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G418" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="419" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G419" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="420" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G420" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="421" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G421" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="422" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G422" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="423" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G423" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="424" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G424" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="425" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G425" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="426" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G426" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="427" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G427" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="428" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G428" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="429" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G429" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="430" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G430" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="431" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G431" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="432" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G432" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="433" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G433" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="434" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G434" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="435" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G435" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="436" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G436" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="437" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G437" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="438" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G438" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="439" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G439" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="440" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G440" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="441" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G441" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="442" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G442" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="443" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G443" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="444" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G444" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="445" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G445" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="446" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G446" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="447" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G447" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="448" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G448" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="449" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G449" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="450" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G450" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="451" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G451" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="452" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G452" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="453" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G453" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="454" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G454" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="455" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G455" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="456" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G456" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="457" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G457" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="458" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G458" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="459" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G459" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="460" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G460" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="461" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G461" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="462" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G462" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="463" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G463" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="464" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G464" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="465" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G465" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="466" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G466" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="467" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G467" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="468" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G468" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="469" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G469" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="470" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G470" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="471" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G471" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="472" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G472" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="473" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G473" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="474" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G474" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="475" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G475" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="476" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G476" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="477" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G477" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="478" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G478" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="479" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G479" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="480" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G480" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="481" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G481" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="482" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G482" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="483" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G483" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="484" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G484" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="485" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G485" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="486" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G486" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="487" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G487" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="488" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G488" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="489" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G489" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="490" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G490" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="491" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G491" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="492" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G492" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="493" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G493" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="494" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G494" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="495" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G495" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="496" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G496" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>276</v>
       </c>
@@ -6101,7 +6136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E498" t="s">
         <v>18</v>
       </c>
@@ -6115,7 +6150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E499" t="s">
         <v>22</v>
       </c>
@@ -6129,7 +6164,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E500" t="s">
         <v>26</v>
       </c>
@@ -6143,7 +6178,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E501" t="s">
         <v>29</v>
       </c>
@@ -6157,7 +6192,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E502" t="s">
         <v>31</v>
       </c>
@@ -6171,7 +6206,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E503" t="s">
         <v>33</v>
       </c>
@@ -6182,7 +6217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E504" t="s">
         <v>35</v>
       </c>
@@ -6193,7 +6228,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E505" t="s">
         <v>37</v>
       </c>
@@ -6204,7 +6239,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E506" t="s">
         <v>39</v>
       </c>
@@ -6215,7 +6250,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E507" t="s">
         <v>41</v>
       </c>
@@ -6226,7 +6261,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E508" t="s">
         <v>43</v>
       </c>
@@ -6237,7 +6272,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E509" t="s">
         <v>45</v>
       </c>
@@ -6248,7 +6283,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E510" t="s">
         <v>47</v>
       </c>
@@ -6259,7 +6294,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E511" t="s">
         <v>49</v>
       </c>
@@ -6270,7 +6305,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E512" t="s">
         <v>51</v>
       </c>
@@ -6281,7 +6316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="513" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E513" t="s">
         <v>52</v>
       </c>
@@ -6292,7 +6327,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="514" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E514" t="s">
         <v>54</v>
       </c>
@@ -6303,7 +6338,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="515" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E515" t="s">
         <v>56</v>
       </c>
@@ -6314,7 +6349,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="516" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E516" t="s">
         <v>58</v>
       </c>
@@ -6325,7 +6360,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="517" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E517" t="s">
         <v>60</v>
       </c>
@@ -6336,7 +6371,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="518" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E518" t="s">
         <v>62</v>
       </c>
@@ -6347,7 +6382,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="519" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E519" t="s">
         <v>65</v>
       </c>
@@ -6358,7 +6393,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="520" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E520" t="s">
         <v>67</v>
       </c>
@@ -6369,7 +6404,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="521" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E521" t="s">
         <v>69</v>
       </c>
@@ -6380,7 +6415,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="522" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E522" t="s">
         <v>71</v>
       </c>
@@ -6391,7 +6426,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="523" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E523" t="s">
         <v>74</v>
       </c>
@@ -6402,7 +6437,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="524" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E524" t="s">
         <v>77</v>
       </c>
@@ -6413,7 +6448,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="525" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E525" t="s">
         <v>80</v>
       </c>
@@ -6424,7 +6459,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="526" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E526" t="s">
         <v>83</v>
       </c>
@@ -6435,7 +6470,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="527" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E527" t="s">
         <v>86</v>
       </c>
@@ -6446,7 +6481,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="528" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E528" t="s">
         <v>89</v>
       </c>
@@ -6457,7 +6492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="529" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E529" t="s">
         <v>90</v>
       </c>
@@ -6468,7 +6503,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="530" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E530" t="s">
         <v>93</v>
       </c>
@@ -6479,7 +6514,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="531" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E531" t="s">
         <v>96</v>
       </c>
@@ -6490,7 +6525,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="532" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E532" t="s">
         <v>98</v>
       </c>
@@ -6501,7 +6536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="533" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E533" t="s">
         <v>101</v>
       </c>
@@ -6512,7 +6547,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="534" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E534" t="s">
         <v>104</v>
       </c>
@@ -6523,7 +6558,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="535" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E535" t="s">
         <v>107</v>
       </c>
@@ -6534,7 +6569,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="536" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E536" t="s">
         <v>109</v>
       </c>
@@ -6545,7 +6580,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="537" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E537" t="s">
         <v>112</v>
       </c>
@@ -6556,7 +6591,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="538" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E538" t="s">
         <v>115</v>
       </c>
@@ -6567,7 +6602,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="539" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E539" t="s">
         <v>118</v>
       </c>
@@ -6578,7 +6613,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="540" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E540" t="s">
         <v>120</v>
       </c>
@@ -6589,7 +6624,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="541" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E541" t="s">
         <v>123</v>
       </c>
@@ -6600,7 +6635,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="542" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E542" t="s">
         <v>77</v>
       </c>
@@ -6611,7 +6646,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="543" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E543" t="s">
         <v>126</v>
       </c>
@@ -6622,7 +6657,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="544" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E544" t="s">
         <v>129</v>
       </c>
@@ -6633,7 +6668,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="545" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E545" t="s">
         <v>132</v>
       </c>
@@ -6644,7 +6679,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="546" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E546" t="s">
         <v>135</v>
       </c>
@@ -6655,7 +6690,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="547" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E547" t="s">
         <v>138</v>
       </c>
@@ -6666,7 +6701,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="548" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E548" t="s">
         <v>141</v>
       </c>
@@ -6677,7 +6712,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="549" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E549" t="s">
         <v>144</v>
       </c>
@@ -6699,7 +6734,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="551" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E551" t="s">
         <v>150</v>
       </c>
@@ -6710,7 +6745,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="552" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E552" t="s">
         <v>153</v>
       </c>
@@ -6721,7 +6756,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="553" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E553" t="s">
         <v>155</v>
       </c>
@@ -6732,7 +6767,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="554" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E554" t="s">
         <v>77</v>
       </c>
@@ -6743,7 +6778,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="555" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E555" t="s">
         <v>159</v>
       </c>
@@ -6754,7 +6789,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="556" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E556" t="s">
         <v>162</v>
       </c>
@@ -6776,7 +6811,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="558" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E558" t="s">
         <v>168</v>
       </c>
@@ -6787,7 +6822,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="559" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E559" t="s">
         <v>172</v>
       </c>
@@ -6798,7 +6833,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="560" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E560" t="s">
         <v>175</v>
       </c>
@@ -6809,7 +6844,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="561" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E561" t="s">
         <v>178</v>
       </c>
@@ -6820,7 +6855,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="562" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E562" t="s">
         <v>181</v>
       </c>
@@ -6831,7 +6866,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="563" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E563" t="s">
         <v>184</v>
       </c>
@@ -6842,7 +6877,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="564" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E564" t="s">
         <v>187</v>
       </c>
@@ -6853,7 +6888,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="565" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E565" t="s">
         <v>98</v>
       </c>
@@ -6864,7 +6899,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="566" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E566" t="s">
         <v>190</v>
       </c>
@@ -6875,7 +6910,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="567" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E567" t="s">
         <v>192</v>
       </c>
@@ -6886,7 +6921,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="568" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E568" t="s">
         <v>194</v>
       </c>
@@ -6897,7 +6932,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="569" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E569" t="s">
         <v>197</v>
       </c>
@@ -6908,7 +6943,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="570" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E570" t="s">
         <v>200</v>
       </c>
@@ -6919,872 +6954,872 @@
         <v>24</v>
       </c>
     </row>
-    <row r="571" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G571" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="572" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G572" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="573" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G573" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="574" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G574" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="575" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G575" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="576" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G576" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="577" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G577" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="578" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G578" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="579" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G579" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="580" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G580" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="581" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G581" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="582" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G582" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="583" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G583" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="584" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G584" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="585" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G585" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="586" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G586" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="587" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G587" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="588" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G588" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="589" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G589" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="590" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G590" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="591" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G591" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="592" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G592" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="593" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G593" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="594" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G594" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="595" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G595" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="596" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G596" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="597" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G597" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="598" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G598" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="599" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G599" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="600" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G600" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="601" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G601" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="602" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G602" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="603" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G603" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="604" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G604" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="605" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G605" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="606" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G606" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="607" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G607" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="608" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G608" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="609" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G609" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="610" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G610" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="611" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G611" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="612" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G612" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="613" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G613" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="614" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G614" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="615" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G615" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="616" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G616" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="617" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G617" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="618" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G618" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="619" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G619" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="620" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G620" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="621" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G621" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="622" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G622" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="623" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G623" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="624" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G624" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="625" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G625" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="626" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G626" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="627" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G627" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="628" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G628" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="629" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G629" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="630" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G630" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="631" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G631" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="632" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G632" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="633" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G633" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="634" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G634" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="635" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G635" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="636" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G636" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="637" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G637" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="638" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G638" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="639" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G639" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="640" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G640" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="641" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G641" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="642" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G642" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="643" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G643" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="644" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G644" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="645" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G645" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="646" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G646" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="647" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G647" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="648" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G648" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="649" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G649" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="650" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G650" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="651" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G651" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="652" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G652" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="653" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G653" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="654" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G654" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="655" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G655" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="656" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G656" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="657" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G657" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="658" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G658" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="659" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G659" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="660" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G660" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="661" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G661" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="662" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G662" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="663" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G663" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="664" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G664" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="665" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G665" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="666" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G666" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="667" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G667" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="668" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G668" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="669" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G669" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="670" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G670" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="671" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G671" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="672" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G672" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="673" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G673" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="674" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G674" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="675" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G675" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="676" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G676" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="677" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G677" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="678" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G678" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="679" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G679" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="680" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G680" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="681" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G681" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="682" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G682" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="683" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G683" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="684" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G684" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="685" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G685" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="686" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G686" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="687" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G687" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="688" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G688" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="689" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G689" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="690" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G690" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="691" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G691" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="692" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G692" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="693" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G693" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="694" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G694" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="695" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G695" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="696" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G696" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="697" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G697" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="698" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="698" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G698" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="699" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G699" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="700" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G700" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="701" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G701" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="702" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G702" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="703" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G703" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="704" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G704" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="705" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="705" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G705" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="706" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G706" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="707" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G707" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="708" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G708" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="709" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G709" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="710" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G710" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="711" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="711" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G711" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="712" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G712" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="713" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G713" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="714" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G714" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="715" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G715" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="716" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G716" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="717" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G717" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="718" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G718" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="719" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G719" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="720" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G720" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="721" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G721" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="722" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G722" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="723" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G723" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="724" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G724" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="725" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="725" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G725" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="726" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G726" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="727" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G727" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="728" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G728" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="729" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G729" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="730" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G730" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="731" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G731" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="732" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G732" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="733" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G733" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="734" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G734" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="735" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G735" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="736" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G736" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G737" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G738" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G739" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G740" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G741" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G742" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G743" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>276</v>
       </c>
@@ -7810,7 +7845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E745" t="s">
         <v>18</v>
       </c>
@@ -7824,7 +7859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E746" t="s">
         <v>22</v>
       </c>
@@ -7838,7 +7873,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E747" t="s">
         <v>26</v>
       </c>
@@ -7852,7 +7887,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E748" t="s">
         <v>29</v>
       </c>
@@ -7866,7 +7901,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E749" t="s">
         <v>31</v>
       </c>
@@ -7880,7 +7915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E750" t="s">
         <v>33</v>
       </c>
@@ -7891,7 +7926,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E751" t="s">
         <v>35</v>
       </c>
@@ -7902,7 +7937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E752" t="s">
         <v>37</v>
       </c>
@@ -7913,7 +7948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="753" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="753" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E753" t="s">
         <v>39</v>
       </c>
@@ -7924,7 +7959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="754" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E754" t="s">
         <v>41</v>
       </c>
@@ -7935,7 +7970,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="755" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="755" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E755" t="s">
         <v>43</v>
       </c>
@@ -7946,7 +7981,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="756" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="756" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E756" t="s">
         <v>45</v>
       </c>
@@ -7957,7 +7992,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="757" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="757" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E757" t="s">
         <v>47</v>
       </c>
@@ -7968,7 +8003,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="758" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E758" t="s">
         <v>49</v>
       </c>
@@ -7979,7 +8014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="759" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="759" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E759" t="s">
         <v>51</v>
       </c>
@@ -7990,7 +8025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="760" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="760" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E760" t="s">
         <v>52</v>
       </c>
@@ -8001,7 +8036,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="761" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E761" t="s">
         <v>54</v>
       </c>
@@ -8012,7 +8047,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="762" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="762" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E762" t="s">
         <v>56</v>
       </c>
@@ -8023,7 +8058,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="763" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="763" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E763" t="s">
         <v>58</v>
       </c>
@@ -8034,7 +8069,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="764" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="764" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E764" t="s">
         <v>60</v>
       </c>
@@ -8045,7 +8080,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="765" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E765" t="s">
         <v>62</v>
       </c>
@@ -8056,7 +8091,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="766" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="766" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E766" t="s">
         <v>65</v>
       </c>
@@ -8067,7 +8102,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="767" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E767" t="s">
         <v>67</v>
       </c>
@@ -8078,7 +8113,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="768" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="768" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E768" t="s">
         <v>69</v>
       </c>
@@ -8089,7 +8124,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="769" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E769" t="s">
         <v>71</v>
       </c>
@@ -8100,7 +8135,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="770" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E770" t="s">
         <v>74</v>
       </c>
@@ -8111,7 +8146,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="771" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="771" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E771" t="s">
         <v>77</v>
       </c>
@@ -8122,7 +8157,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="772" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="772" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E772" t="s">
         <v>80</v>
       </c>
@@ -8133,7 +8168,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="773" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="773" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E773" t="s">
         <v>83</v>
       </c>
@@ -8144,7 +8179,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="774" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="774" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E774" t="s">
         <v>86</v>
       </c>
@@ -8155,7 +8190,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="775" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="775" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E775" t="s">
         <v>89</v>
       </c>
@@ -8166,7 +8201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="776" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="776" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E776" t="s">
         <v>90</v>
       </c>
@@ -8177,7 +8212,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="777" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="777" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E777" t="s">
         <v>93</v>
       </c>
@@ -8188,7 +8223,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="778" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="778" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E778" t="s">
         <v>96</v>
       </c>
@@ -8199,7 +8234,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="779" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="779" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E779" t="s">
         <v>98</v>
       </c>
@@ -8210,7 +8245,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="780" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="780" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E780" t="s">
         <v>101</v>
       </c>
@@ -8221,7 +8256,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="781" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="781" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E781" t="s">
         <v>104</v>
       </c>
@@ -8232,7 +8267,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="782" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="782" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E782" t="s">
         <v>107</v>
       </c>
@@ -8243,7 +8278,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="783" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="783" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E783" t="s">
         <v>109</v>
       </c>
@@ -8254,7 +8289,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="784" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="784" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E784" t="s">
         <v>112</v>
       </c>
@@ -8265,7 +8300,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="785" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="785" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E785" t="s">
         <v>115</v>
       </c>
@@ -8276,7 +8311,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="786" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E786" t="s">
         <v>118</v>
       </c>
@@ -8287,7 +8322,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="787" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E787" t="s">
         <v>120</v>
       </c>
@@ -8298,7 +8333,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="788" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="788" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E788" t="s">
         <v>123</v>
       </c>
@@ -8309,7 +8344,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="789" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="789" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E789" t="s">
         <v>77</v>
       </c>
@@ -8320,7 +8355,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="790" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="790" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E790" t="s">
         <v>126</v>
       </c>
@@ -8331,7 +8366,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="791" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="791" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E791" t="s">
         <v>129</v>
       </c>
@@ -8342,7 +8377,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="792" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="792" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E792" t="s">
         <v>132</v>
       </c>
@@ -8353,7 +8388,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="793" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="793" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E793" t="s">
         <v>135</v>
       </c>
@@ -8364,7 +8399,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="794" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="794" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E794" t="s">
         <v>138</v>
       </c>
@@ -8375,7 +8410,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="795" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="795" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E795" t="s">
         <v>141</v>
       </c>
@@ -8386,7 +8421,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="796" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="796" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E796" t="s">
         <v>144</v>
       </c>
@@ -8408,7 +8443,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="798" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="798" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E798" t="s">
         <v>150</v>
       </c>
@@ -8419,7 +8454,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="799" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="799" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E799" t="s">
         <v>153</v>
       </c>
@@ -8430,7 +8465,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="800" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="800" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E800" t="s">
         <v>155</v>
       </c>
@@ -8441,7 +8476,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="801" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="801" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E801" t="s">
         <v>77</v>
       </c>
@@ -8452,7 +8487,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="802" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E802" t="s">
         <v>159</v>
       </c>
@@ -8463,7 +8498,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="803" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E803" t="s">
         <v>162</v>
       </c>
@@ -8485,7 +8520,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="805" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="805" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E805" t="s">
         <v>168</v>
       </c>
@@ -8496,7 +8531,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="806" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="806" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E806" t="s">
         <v>172</v>
       </c>
@@ -8507,7 +8542,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="807" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E807" t="s">
         <v>175</v>
       </c>
@@ -8518,7 +8553,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="808" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E808" t="s">
         <v>178</v>
       </c>
@@ -8529,7 +8564,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="809" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="809" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E809" t="s">
         <v>181</v>
       </c>
@@ -8540,7 +8575,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="810" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="810" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E810" t="s">
         <v>184</v>
       </c>
@@ -8551,7 +8586,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="811" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="811" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E811" t="s">
         <v>187</v>
       </c>
@@ -8562,7 +8597,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="812" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="812" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E812" t="s">
         <v>98</v>
       </c>
@@ -8573,7 +8608,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="813" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E813" t="s">
         <v>190</v>
       </c>
@@ -8584,7 +8619,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="814" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E814" t="s">
         <v>192</v>
       </c>
@@ -8595,7 +8630,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="815" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E815" t="s">
         <v>194</v>
       </c>
@@ -8606,7 +8641,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="816" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="816" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E816" t="s">
         <v>197</v>
       </c>
@@ -8617,7 +8652,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="817" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="817" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E817" t="s">
         <v>200</v>
       </c>
@@ -8628,867 +8663,867 @@
         <v>24</v>
       </c>
     </row>
-    <row r="818" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="818" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G818" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="819" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="819" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G819" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="820" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="820" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G820" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="821" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="821" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G821" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="822" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="822" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G822" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="823" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="823" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G823" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="824" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="824" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G824" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="825" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="825" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G825" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="826" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="826" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G826" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="827" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="827" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G827" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="828" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="828" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G828" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="829" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="829" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G829" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="830" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="830" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G830" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="831" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="831" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G831" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="832" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="832" spans="5:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G832" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="833" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="833" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G833" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="834" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="834" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G834" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="835" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="835" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G835" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="836" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="836" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G836" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="837" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="837" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G837" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="838" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="838" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G838" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="839" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="839" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G839" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="840" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="840" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G840" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="841" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="841" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G841" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="842" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="842" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G842" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="843" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="843" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G843" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="844" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="844" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G844" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="845" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="845" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G845" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="846" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="846" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G846" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="847" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="847" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G847" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="848" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="848" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G848" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="849" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="849" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G849" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="850" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="850" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G850" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="851" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="851" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G851" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="852" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="852" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G852" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="853" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="853" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G853" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="854" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="854" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G854" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="855" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="855" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G855" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="856" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="856" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G856" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="857" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="857" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G857" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="858" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="858" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G858" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="859" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="859" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G859" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="860" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="860" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G860" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="861" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="861" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G861" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="862" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="862" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G862" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="863" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="863" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G863" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="864" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="864" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G864" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="865" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="865" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G865" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="866" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="866" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G866" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="867" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="867" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G867" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="868" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="868" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G868" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="869" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="869" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G869" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="870" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="870" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G870" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="871" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="871" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G871" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="872" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="872" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G872" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="873" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="873" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G873" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="874" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="874" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G874" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="875" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="875" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G875" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="876" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="876" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G876" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="877" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="877" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G877" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="878" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="878" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G878" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="879" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="879" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G879" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="880" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="880" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G880" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="881" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="881" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G881" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="882" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="882" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G882" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="883" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="883" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G883" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="884" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="884" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G884" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="885" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="885" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G885" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="886" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="886" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G886" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="887" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="887" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G887" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="888" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="888" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G888" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="889" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="889" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G889" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="890" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="890" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G890" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="891" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="891" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G891" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="892" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="892" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G892" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="893" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="893" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G893" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="894" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="894" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G894" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="895" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="895" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G895" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="896" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="896" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G896" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="897" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="897" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G897" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="898" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="898" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G898" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="899" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="899" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G899" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="900" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="900" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G900" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="901" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="901" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G901" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="902" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="902" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G902" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="903" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="903" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G903" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="904" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="904" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G904" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="905" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="905" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G905" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="906" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="906" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G906" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="907" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="907" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G907" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="908" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="908" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G908" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="909" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="909" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G909" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="910" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="910" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G910" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="911" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="911" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G911" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="912" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="912" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G912" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="913" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="913" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G913" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="914" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="914" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G914" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="915" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="915" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G915" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="916" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="916" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G916" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="917" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="917" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G917" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="918" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="918" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G918" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="919" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="919" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G919" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="920" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="920" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G920" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="921" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="921" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G921" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="922" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="922" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G922" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="923" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="923" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G923" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="924" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="924" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G924" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="925" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="925" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G925" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="926" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="926" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G926" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="927" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="927" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G927" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="928" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="928" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G928" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="929" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="929" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G929" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="930" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="930" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G930" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="931" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="931" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G931" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="932" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="932" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G932" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="933" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="933" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G933" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="934" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="934" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G934" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="935" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="935" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G935" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="936" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="936" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G936" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="937" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="937" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G937" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="938" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="938" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G938" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="939" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="939" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G939" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="940" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="940" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G940" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="941" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="941" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G941" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="942" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="942" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G942" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="943" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="943" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G943" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="944" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="944" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G944" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="945" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="945" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G945" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="946" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="946" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G946" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="947" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="947" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G947" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="948" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="948" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G948" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="949" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="949" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G949" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="950" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="950" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G950" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="951" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="951" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G951" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="952" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="952" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G952" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="953" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="953" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G953" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="954" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="954" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G954" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="955" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="955" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G955" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="956" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="956" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G956" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="957" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="957" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G957" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="958" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="958" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G958" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="959" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="959" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G959" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="960" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="960" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G960" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="961" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="961" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G961" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="962" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="962" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G962" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="963" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="963" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G963" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="964" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="964" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G964" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="965" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="965" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G965" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="966" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="966" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G966" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="967" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="967" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G967" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="968" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="968" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G968" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="969" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="969" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G969" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="970" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="970" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G970" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="971" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="971" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G971" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="972" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="972" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G972" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="973" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="973" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G973" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="974" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="974" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G974" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="975" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="975" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G975" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="976" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="976" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G976" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="977" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="977" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G977" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="978" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="978" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G978" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="979" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="979" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G979" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="980" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="980" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G980" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="981" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="981" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G981" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="982" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="982" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G982" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="983" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="983" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G983" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="984" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="984" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G984" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="985" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="985" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G985" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="986" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="986" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G986" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="987" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="987" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G987" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="988" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="988" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G988" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="989" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="989" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G989" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="990" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="990" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G990" t="s">
         <v>27</v>
       </c>
@@ -11340,4 +11375,71 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>43434343</v>
+      </c>
+      <c r="B2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>54454554</v>
+      </c>
+      <c r="B3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4454545</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>